--- a/Jogos_do_Dia/2024-02-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>2.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="M2" t="n">
         <v>1.36</v>
@@ -718,7 +718,7 @@
         <v>3.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T2" t="n">
         <v>1.87</v>
@@ -739,10 +739,10 @@
         <v>1.28</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AB2" t="n">
         <v>1.56</v>
@@ -775,7 +775,7 @@
         <v>2.34</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.88</v>
+        <v>2.38</v>
       </c>
       <c r="AM2" t="n">
         <v>1.82</v>
@@ -830,7 +830,7 @@
         <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
         <v>3.4</v>
@@ -860,7 +860,7 @@
         <v>1.85</v>
       </c>
       <c r="T3" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
         <v>1.7</v>
@@ -878,10 +878,10 @@
         <v>1.78</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AB3" t="n">
         <v>1.47</v>
@@ -969,13 +969,13 @@
         <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L4" t="n">
-        <v>2.41</v>
+        <v>2.55</v>
       </c>
       <c r="M4" t="n">
         <v>1.45</v>
@@ -996,10 +996,10 @@
         <v>2.9</v>
       </c>
       <c r="S4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
         <v>1.9</v>
@@ -1017,10 +1017,10 @@
         <v>1.42</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA4" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AB4" t="n">
         <v>1.43</v>
@@ -1108,13 +1108,13 @@
         <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K5" t="n">
         <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.33</v>
@@ -1135,10 +1135,10 @@
         <v>3.89</v>
       </c>
       <c r="S5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="U5" t="n">
         <v>1.67</v>
@@ -1156,10 +1156,10 @@
         <v>1.72</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AB5" t="n">
         <v>1.43</v>
@@ -1247,13 +1247,13 @@
         <v>2.88</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.13</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.4</v>
@@ -1274,7 +1274,7 @@
         <v>3.3</v>
       </c>
       <c r="S6" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T6" t="n">
         <v>1.83</v>
@@ -1295,7 +1295,7 @@
         <v>1.35</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AA6" t="n">
         <v>1</v>
@@ -1386,13 +1386,13 @@
         <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="M7" t="n">
         <v>1.3</v>
@@ -1413,10 +1413,10 @@
         <v>4.33</v>
       </c>
       <c r="S7" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="T7" t="n">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="U7" t="n">
         <v>2.05</v>
@@ -1434,10 +1434,10 @@
         <v>3.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AB7" t="n">
         <v>1.49</v>
@@ -1491,7 +1491,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1507,124 +1507,124 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Sepsi</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="H8" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="I8" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P8" t="n">
         <v>7.5</v>
       </c>
-      <c r="K8" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="Q8" t="n">
         <v>1.33</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.16</v>
-      </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="S8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA8" t="n">
         <v>1.57</v>
       </c>
-      <c r="T8" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V8" t="n">
+      <c r="AB8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK8" t="n">
         <v>1.95</v>
       </c>
-      <c r="W8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AL8" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>1.19</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>1.84</v>
       </c>
     </row>
     <row r="9">
@@ -1664,13 +1664,13 @@
         <v>1.91</v>
       </c>
       <c r="J9" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="M9" t="n">
         <v>1.29</v>
@@ -1712,7 +1712,7 @@
         <v>1.15</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AA9" t="n">
         <v>1</v>
@@ -1736,16 +1736,16 @@
         <v>1.51</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AL9" t="n">
         <v>1.66</v>
@@ -1769,7 +1769,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,134 +1781,134 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.88</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.35</v>
+        <v>7.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>5.25</v>
       </c>
       <c r="L10" t="n">
-        <v>2.85</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AK10" t="n">
         <v>4</v>
       </c>
-      <c r="S10" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AL10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AN10" t="n">
         <v>2</v>
       </c>
-      <c r="AA10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>2.5</v>
-      </c>
       <c r="AO10" t="n">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.42</v>
+        <v>1.95</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.25</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,128 +1920,128 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sepsi</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.05</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="U11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.2</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T11" t="n">
+      <c r="W11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE11" t="n">
         <v>1.77</v>
       </c>
-      <c r="U11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AF11" t="n">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="AK11" t="n">
-        <v>1.95</v>
+        <v>2.28</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.79</v>
+        <v>2.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.92</v>
+        <v>3.42</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="12">
@@ -2081,13 +2081,13 @@
         <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.33</v>
@@ -2108,10 +2108,10 @@
         <v>3.98</v>
       </c>
       <c r="S12" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="T12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="U12" t="n">
         <v>1.7</v>
@@ -2129,10 +2129,10 @@
         <v>2.16</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AB12" t="n">
         <v>1.85</v>
@@ -2220,13 +2220,13 @@
         <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="L13" t="n">
-        <v>4.9</v>
+        <v>4.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.22</v>
@@ -2247,10 +2247,10 @@
         <v>5.75</v>
       </c>
       <c r="S13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T13" t="n">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="U13" t="n">
         <v>1.44</v>
@@ -2268,10 +2268,10 @@
         <v>2.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AB13" t="n">
         <v>1.98</v>
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.72</v>
       </c>
       <c r="L14" t="n">
         <v>6</v>
@@ -2386,10 +2386,10 @@
         <v>4.33</v>
       </c>
       <c r="S14" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="T14" t="n">
-        <v>2.25</v>
+        <v>2.21</v>
       </c>
       <c r="U14" t="n">
         <v>1.8</v>
@@ -2407,10 +2407,10 @@
         <v>2.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AB14" t="n">
         <v>1.72</v>
@@ -2498,13 +2498,13 @@
         <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>4.03</v>
       </c>
       <c r="L15" t="n">
-        <v>4.35</v>
+        <v>4.12</v>
       </c>
       <c r="M15" t="n">
         <v>1.29</v>
@@ -2525,10 +2525,10 @@
         <v>4.5</v>
       </c>
       <c r="S15" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="T15" t="n">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="U15" t="n">
         <v>1.57</v>
@@ -2546,10 +2546,10 @@
         <v>2</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AB15" t="n">
         <v>1.68</v>
@@ -2637,13 +2637,13 @@
         <v>4.33</v>
       </c>
       <c r="J16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.53</v>
@@ -2664,10 +2664,10 @@
         <v>2.6</v>
       </c>
       <c r="S16" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="T16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U16" t="n">
         <v>2.1</v>
@@ -2685,10 +2685,10 @@
         <v>1.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AB16" t="n">
         <v>1.36</v>
@@ -2742,7 +2742,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2754,59 +2754,59 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>CD Eldense</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Racing Club de Ferrol</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="K17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L17" t="n">
         <v>3.15</v>
       </c>
-      <c r="L17" t="n">
-        <v>2.7</v>
-      </c>
       <c r="M17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="N17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="O17" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="P17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.56</v>
       </c>
       <c r="U17" t="n">
         <v>2.1</v>
@@ -2815,73 +2815,73 @@
         <v>1.67</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO17" t="n">
         <v>1.33</v>
       </c>
-      <c r="Y17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AP17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>1.18</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2893,134 +2893,134 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CD Eldense</t>
+          <t>Hvidovre</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Racing Club de Ferrol</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N18" t="n">
         <v>3</v>
       </c>
-      <c r="H18" t="n">
+      <c r="O18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM18" t="n">
         <v>1.95</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1.58</v>
-      </c>
       <c r="AN18" t="n">
-        <v>3.15</v>
+        <v>2.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="AP18" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -3032,128 +3032,128 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.1</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="W19" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X19" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Z19" t="n">
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.25</v>
+        <v>0.85</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.2</v>
+        <v>1.92</v>
       </c>
       <c r="AF19" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AI19" t="n">
-        <v>3.55</v>
+        <v>3.34</v>
       </c>
       <c r="AJ19" t="n">
         <v>1.55</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="20">
@@ -3175,94 +3175,94 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="L20" t="n">
         <v>2.25</v>
       </c>
-      <c r="I20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.85</v>
-      </c>
       <c r="M20" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="O20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P20" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X20" t="n">
         <v>1.25</v>
       </c>
-      <c r="R20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AB20" t="n">
         <v>1.22</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AC20" t="n">
         <v>1.22</v>
       </c>
-      <c r="Z20" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AD20" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="AE20" t="n">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="AF20" t="n">
         <v>8</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AH20" t="n">
         <v>1.27</v>
@@ -3314,124 +3314,124 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Fatih Karagümrük</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="H21" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.71</v>
+        <v>1.94</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>4.35</v>
+        <v>3.65</v>
       </c>
       <c r="M21" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="N21" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
         <v>1.04</v>
       </c>
       <c r="P21" t="n">
-        <v>15</v>
+        <v>10.06</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="R21" t="n">
-        <v>4.22</v>
+        <v>3.44</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="T21" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="X21" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.01</v>
+        <v>2.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="AF21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI21" t="n">
         <v>3.4</v>
       </c>
-      <c r="AH21" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>3.95</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="AM21" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.23</v>
+        <v>2.55</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="22">
@@ -3471,13 +3471,13 @@
         <v>3.4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="K22" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="L22" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="M22" t="n">
         <v>1.44</v>
@@ -3498,10 +3498,10 @@
         <v>3.3</v>
       </c>
       <c r="S22" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="T22" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="U22" t="n">
         <v>1.8</v>
@@ -3519,10 +3519,10 @@
         <v>1.45</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AB22" t="n">
         <v>1.5</v>
@@ -3592,124 +3592,124 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>3.65</v>
+        <v>4.35</v>
       </c>
       <c r="M23" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="n">
         <v>1.04</v>
       </c>
       <c r="P23" t="n">
-        <v>10.06</v>
+        <v>15</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="R23" t="n">
-        <v>3.44</v>
+        <v>4.22</v>
       </c>
       <c r="S23" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="T23" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W23" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="X23" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.5</v>
+        <v>3.01</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="AF23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG23" t="n">
-        <v>2.62</v>
+        <v>3.4</v>
       </c>
       <c r="AH23" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AI23" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AK23" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AL23" t="n">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="AM23" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.55</v>
+        <v>2.23</v>
       </c>
       <c r="AO23" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AP23" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="24">
@@ -3776,10 +3776,10 @@
         <v>3.5</v>
       </c>
       <c r="S24" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T24" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="U24" t="n">
         <v>1.67</v>
@@ -3797,10 +3797,10 @@
         <v>1.47</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AB24" t="n">
         <v>1.46</v>
@@ -3854,7 +3854,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Austria Bundesliga</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3866,134 +3866,134 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Austria Klagenfurt</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blau-Weiß Linz</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.88</v>
+        <v>8.5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="I25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J25" t="n">
+        <v>9</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N25" t="n">
         <v>3.75</v>
       </c>
-      <c r="J25" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.63</v>
-      </c>
       <c r="O25" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="R25" t="n">
-        <v>3.1</v>
+        <v>4.93</v>
       </c>
       <c r="S25" t="n">
-        <v>2.06</v>
+        <v>1.63</v>
       </c>
       <c r="T25" t="n">
-        <v>1.78</v>
+        <v>2.19</v>
       </c>
       <c r="U25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.8</v>
       </c>
-      <c r="V25" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W25" t="n">
-        <v>1.36</v>
+        <v>3.75</v>
       </c>
       <c r="X25" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.66</v>
+        <v>1.02</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.58</v>
+        <v>1.08</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>2.55</v>
       </c>
       <c r="AB25" t="n">
         <v>1.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.96</v>
+        <v>2.02</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.26</v>
+        <v>3.32</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.75</v>
+        <v>4.8</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.44</v>
+        <v>1.28</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AI25" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AK25" t="n">
-        <v>2.29</v>
+        <v>2.55</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.52</v>
+        <v>2.14</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.42</v>
+        <v>2.75</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Austria Bundesliga</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -4005,128 +4005,128 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wattens</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I26" t="n">
         <v>5.5</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.1</v>
-      </c>
       <c r="J26" t="n">
-        <v>5.75</v>
+        <v>1.49</v>
       </c>
       <c r="K26" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.48</v>
+        <v>5.6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="N26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.02</v>
       </c>
       <c r="P26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="R26" t="n">
-        <v>4.33</v>
+        <v>4.45</v>
       </c>
       <c r="S26" t="n">
         <v>1.58</v>
       </c>
       <c r="T26" t="n">
-        <v>2.28</v>
+        <v>2.35</v>
       </c>
       <c r="U26" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
-        <v>2.55</v>
+        <v>1.13</v>
       </c>
       <c r="X26" t="n">
         <v>1.17</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.12</v>
+        <v>2.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.58</v>
+        <v>2.33</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.05</v>
+        <v>1.33</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.27</v>
+        <v>1.79</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.7</v>
+        <v>2.98</v>
       </c>
       <c r="AE26" t="n">
-        <v>3.49</v>
+        <v>1.34</v>
       </c>
       <c r="AF26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>1.41</v>
+        <v>4.1</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AI26" t="n">
-        <v>4.15</v>
+        <v>3.6</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AK26" t="n">
-        <v>2.84</v>
+        <v>2.55</v>
       </c>
       <c r="AL26" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AM26" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="AO26" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="27">
@@ -4166,13 +4166,13 @@
         <v>6</v>
       </c>
       <c r="J27" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="K27" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="L27" t="n">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="M27" t="n">
         <v>1.3</v>
@@ -4193,7 +4193,7 @@
         <v>4.55</v>
       </c>
       <c r="S27" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T27" t="n">
         <v>2.2</v>
@@ -4214,10 +4214,10 @@
         <v>2.71</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AB27" t="n">
         <v>1.33</v>
@@ -4271,7 +4271,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Austria Bundesliga</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -4283,134 +4283,134 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Blau-Weiß Linz</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="H28" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="I28" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="J28" t="n">
-        <v>1.49</v>
+        <v>2.2</v>
       </c>
       <c r="K28" t="n">
-        <v>4.7</v>
+        <v>3.25</v>
       </c>
       <c r="L28" t="n">
-        <v>5.6</v>
+        <v>3.15</v>
       </c>
       <c r="M28" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="N28" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="O28" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="P28" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="R28" t="n">
-        <v>4.45</v>
+        <v>3.1</v>
       </c>
       <c r="S28" t="n">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>2.35</v>
+        <v>1.76</v>
       </c>
       <c r="U28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AE28" t="n">
         <v>1.75</v>
       </c>
-      <c r="V28" t="n">
-        <v>2</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1.34</v>
-      </c>
       <c r="AF28" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AG28" t="n">
-        <v>4.1</v>
+        <v>2.44</v>
       </c>
       <c r="AH28" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AI28" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AK28" t="n">
-        <v>2.55</v>
+        <v>2.29</v>
       </c>
       <c r="AL28" t="n">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="AM28" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AN28" t="n">
-        <v>1.98</v>
+        <v>2.52</v>
       </c>
       <c r="AO28" t="n">
-        <v>1.82</v>
+        <v>1.46</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.65</v>
+        <v>3.42</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Austria Bundesliga</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -4422,128 +4422,128 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Wattens</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="H29" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="I29" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="J29" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P29" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AF29" t="n">
         <v>9</v>
       </c>
-      <c r="K29" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P29" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Z29" t="n">
+      <c r="AG29" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AH29" t="n">
         <v>1.18</v>
       </c>
-      <c r="AA29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>1.22</v>
-      </c>
       <c r="AI29" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AK29" t="n">
-        <v>2.55</v>
+        <v>2.84</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AM29" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="AO29" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="30">
@@ -4574,22 +4574,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="H30" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="I30" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K30" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="L30" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="M30" t="n">
         <v>1.6</v>
@@ -4604,13 +4604,13 @@
         <v>6.14</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R30" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S30" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="T30" t="n">
         <v>1.44</v>
@@ -4631,10 +4631,10 @@
         <v>1.3</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AB30" t="n">
         <v>1.37</v>
@@ -4646,13 +4646,13 @@
         <v>2.75</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AG30" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="AH30" t="n">
         <v>1.49</v>
@@ -4679,16 +4679,16 @@
         <v>1.28</v>
       </c>
       <c r="AP30" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -4700,134 +4700,134 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Slavia Praha</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>1.15</v>
       </c>
       <c r="K31" t="n">
-        <v>3.35</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L31" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P31" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AB31" t="n">
         <v>2.25</v>
       </c>
-      <c r="M31" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P31" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V31" t="n">
+      <c r="AC31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AN31" t="n">
         <v>1.85</v>
       </c>
-      <c r="W31" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>2.19</v>
-      </c>
       <c r="AO31" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.7</v>
+        <v>2.23</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -4839,134 +4839,134 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>CF Os Belenenses</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N32" t="n">
         <v>2.5</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P32" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y32" t="n">
         <v>1.36</v>
       </c>
-      <c r="N32" t="n">
-        <v>3</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Z32" t="n">
-        <v>1.25</v>
+        <v>0.83</v>
       </c>
       <c r="AA32" t="n">
         <v>1.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="AD32" t="n">
-        <v>2.86</v>
+        <v>2.51</v>
       </c>
       <c r="AE32" t="n">
-        <v>2.66</v>
+        <v>1.81</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
       <c r="AG32" t="n">
-        <v>1.65</v>
+        <v>2.27</v>
       </c>
       <c r="AH32" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AI32" t="n">
-        <v>3.88</v>
+        <v>3.7</v>
       </c>
       <c r="AJ32" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>1.41</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>1.36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4978,134 +4978,134 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Widzew Łódź</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I33" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="K33" t="n">
         <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>2.28</v>
+        <v>3.1</v>
       </c>
       <c r="M33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ33" t="n">
         <v>1.44</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>1.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Slovenia PrvaLiga</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -5121,130 +5121,130 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Domžale</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I34" t="n">
         <v>2.05</v>
       </c>
-      <c r="H34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7.5</v>
-      </c>
       <c r="J34" t="n">
-        <v>1.45</v>
+        <v>4.2</v>
       </c>
       <c r="K34" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>8</v>
+        <v>1.61</v>
       </c>
       <c r="M34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P34" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AG34" t="n">
         <v>1.44</v>
       </c>
-      <c r="N34" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P34" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R34" t="n">
+      <c r="AH34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK34" t="n">
         <v>3.2</v>
       </c>
-      <c r="S34" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>2.03</v>
-      </c>
       <c r="AL34" t="n">
-        <v>2.24</v>
+        <v>1.59</v>
       </c>
       <c r="AM34" t="n">
-        <v>1.64</v>
+        <v>2.28</v>
       </c>
       <c r="AN34" t="n">
-        <v>2.93</v>
+        <v>1.96</v>
       </c>
       <c r="AO34" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP34" t="n">
-        <v>4.2</v>
+        <v>2.44</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -5256,35 +5256,35 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>České Budějovice</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="H35" t="n">
         <v>2.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="J35" t="n">
-        <v>4.1</v>
+        <v>2.65</v>
       </c>
       <c r="K35" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L35" t="n">
-        <v>1.9</v>
+        <v>2.48</v>
       </c>
       <c r="M35" t="n">
         <v>1.4</v>
@@ -5293,97 +5293,97 @@
         <v>2.75</v>
       </c>
       <c r="O35" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P35" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="Q35" t="n">
         <v>1.28</v>
       </c>
       <c r="R35" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="S35" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="T35" t="n">
         <v>1.91</v>
       </c>
       <c r="U35" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V35" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W35" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="X35" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AB35" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AC35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>1.22</v>
       </c>
-      <c r="AD35" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AK35" t="n">
-        <v>2.26</v>
+        <v>3.65</v>
       </c>
       <c r="AL35" t="n">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="AM35" t="n">
-        <v>1.81</v>
+        <v>2.6</v>
       </c>
       <c r="AN35" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="AO35" t="n">
-        <v>1.51</v>
+        <v>1.92</v>
       </c>
       <c r="AP35" t="n">
-        <v>3.48</v>
+        <v>2.14</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -5399,130 +5399,130 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Domžale</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I36" t="n">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="J36" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="K36" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="L36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="n">
         <v>1.73</v>
       </c>
-      <c r="M36" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P36" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.95</v>
-      </c>
       <c r="U36" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="V36" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="W36" t="n">
-        <v>2.05</v>
+        <v>1.08</v>
       </c>
       <c r="X36" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="Y36" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC36" t="n">
         <v>1.2</v>
       </c>
-      <c r="Z36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AD36" t="n">
-        <v>3.28</v>
+        <v>2.61</v>
       </c>
       <c r="AE36" t="n">
-        <v>3.1</v>
+        <v>1.32</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AG36" t="n">
-        <v>1.44</v>
+        <v>4.33</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1.3</v>
+        <v>1.77</v>
       </c>
       <c r="AK36" t="n">
-        <v>3.2</v>
+        <v>2.03</v>
       </c>
       <c r="AL36" t="n">
-        <v>1.59</v>
+        <v>2.24</v>
       </c>
       <c r="AM36" t="n">
-        <v>2.28</v>
+        <v>1.64</v>
       </c>
       <c r="AN36" t="n">
-        <v>1.96</v>
+        <v>2.93</v>
       </c>
       <c r="AO36" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.44</v>
+        <v>4.2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.52</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Slovakia Super Liga</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -5534,134 +5534,134 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Slavia Praha</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AO37" t="n">
         <v>1.5</v>
       </c>
-      <c r="H37" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L37" t="n">
-        <v>17</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="N37" t="n">
-        <v>4</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P37" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA37" t="n">
+      <c r="AP37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ37" t="n">
         <v>1.3</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>1.63</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -5673,35 +5673,35 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>České Budějovice</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="H38" t="n">
         <v>2.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="J38" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K38" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L38" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="M38" t="n">
         <v>1.4</v>
@@ -5710,97 +5710,97 @@
         <v>2.75</v>
       </c>
       <c r="O38" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P38" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="Q38" t="n">
         <v>1.28</v>
       </c>
       <c r="R38" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="S38" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="T38" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="U38" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V38" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W38" t="n">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="X38" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AA38" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AB38" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AD38" t="n">
-        <v>2.57</v>
+        <v>2.69</v>
       </c>
       <c r="AE38" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AL38" t="n">
         <v>2</v>
       </c>
-      <c r="AF38" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>1.41</v>
-      </c>
       <c r="AM38" t="n">
-        <v>2.6</v>
+        <v>1.81</v>
       </c>
       <c r="AN38" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>1.92</v>
+        <v>1.51</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.14</v>
+        <v>3.48</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -5812,134 +5812,134 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Widzew Łódź</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R39" t="n">
         <v>3</v>
       </c>
-      <c r="H39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3.3</v>
-      </c>
       <c r="S39" t="n">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="T39" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="U39" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W39" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y39" t="n">
         <v>1.38</v>
       </c>
-      <c r="X39" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Z39" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="AB39" t="n">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AD39" t="n">
-        <v>3.09</v>
+        <v>2.77</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="AF39" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG39" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN39" t="n">
         <v>2.66</v>
       </c>
-      <c r="AH39" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>2.02</v>
-      </c>
       <c r="AO39" t="n">
-        <v>1.74</v>
+        <v>1.43</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.65</v>
+        <v>3.56</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -5951,134 +5951,134 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="H40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I40" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.95</v>
+        <v>3.82</v>
       </c>
       <c r="K40" t="n">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="L40" t="n">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="M40" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="N40" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="O40" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P40" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Q40" t="n">
         <v>1.25</v>
       </c>
       <c r="R40" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="S40" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="T40" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="U40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AO40" t="n">
         <v>1.7</v>
       </c>
-      <c r="V40" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X40" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AO40" t="n">
+      <c r="AP40" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AQ40" t="n">
         <v>1.36</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>1.23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Slovakia Super Liga</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -6090,134 +6090,134 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="H41" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I41" t="n">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="J41" t="n">
-        <v>3.85</v>
+        <v>1.95</v>
       </c>
       <c r="K41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L41" t="n">
         <v>3.5</v>
       </c>
-      <c r="L41" t="n">
-        <v>1.87</v>
-      </c>
       <c r="M41" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="N41" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="O41" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X41" t="n">
         <v>1.22</v>
       </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1.2</v>
-      </c>
       <c r="Y41" t="n">
-        <v>1.22</v>
+        <v>1.8</v>
       </c>
       <c r="Z41" t="n">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="AA41" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AB41" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="AC41" t="n">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="AD41" t="n">
-        <v>3.81</v>
+        <v>3.42</v>
       </c>
       <c r="AE41" t="n">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="AF41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG41" t="n">
-        <v>1.97</v>
+        <v>2.8</v>
       </c>
       <c r="AH41" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AI41" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="AK41" t="n">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
       <c r="AL41" t="n">
-        <v>1.98</v>
+        <v>2.13</v>
       </c>
       <c r="AM41" t="n">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="AN41" t="n">
-        <v>2.51</v>
+        <v>2.9</v>
       </c>
       <c r="AO41" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AP41" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Germany Bundesliga</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -6229,125 +6229,125 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>PAS Giannina</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P42" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S42" t="n">
         <v>2.2</v>
       </c>
-      <c r="I42" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P42" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.93</v>
-      </c>
       <c r="T42" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="U42" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W42" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="X42" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.9</v>
+        <v>0.83</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.73</v>
+        <v>0.42</v>
       </c>
       <c r="AB42" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AC42" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AD42" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AE42" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="AF42" t="n">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="AH42" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AI42" t="n">
-        <v>3.14</v>
+        <v>2.85</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AK42" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AL42" t="n">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="AM42" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AN42" t="n">
-        <v>2.54</v>
+        <v>2.9</v>
       </c>
       <c r="AO42" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>3.48</v>
+        <v>3.8</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.24</v>
@@ -6356,7 +6356,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Germany Bundesliga</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -6368,125 +6368,125 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PAS Giannina</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H43" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="I43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P43" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R43" t="n">
         <v>3.6</v>
       </c>
-      <c r="J43" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P43" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2.94</v>
-      </c>
       <c r="S43" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T43" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="U43" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="V43" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W43" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="X43" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.82</v>
+        <v>1.82</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.36</v>
+        <v>0.75</v>
       </c>
       <c r="AB43" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AC43" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AD43" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AE43" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="AF43" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="AG43" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AI43" t="n">
-        <v>2.85</v>
+        <v>3.14</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AK43" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AL43" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="AM43" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AN43" t="n">
-        <v>2.9</v>
+        <v>2.54</v>
       </c>
       <c r="AO43" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>3.8</v>
+        <v>3.48</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.24</v>
@@ -6529,13 +6529,13 @@
         <v>5.5</v>
       </c>
       <c r="J44" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="K44" t="n">
-        <v>3.45</v>
+        <v>3.13</v>
       </c>
       <c r="L44" t="n">
-        <v>4.7</v>
+        <v>4.33</v>
       </c>
       <c r="M44" t="n">
         <v>1.5</v>
@@ -6556,7 +6556,7 @@
         <v>2.65</v>
       </c>
       <c r="S44" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="T44" t="n">
         <v>1.53</v>
@@ -6577,10 +6577,10 @@
         <v>1.9</v>
       </c>
       <c r="Z44" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AB44" t="n">
         <v>1.48</v>
@@ -6634,7 +6634,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -6646,128 +6646,128 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Brøndby</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I45" t="n">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="J45" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="K45" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="L45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P45" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ45" t="n">
         <v>1.37</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P45" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W45" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="X45" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="46">
@@ -6807,13 +6807,13 @@
         <v>3.6</v>
       </c>
       <c r="J46" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="K46" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L46" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="M46" t="n">
         <v>1.36</v>
@@ -6855,10 +6855,10 @@
         <v>1.62</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AB46" t="n">
         <v>1.89</v>
@@ -6912,7 +6912,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
@@ -6924,134 +6924,134 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Panaitolikos</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Brøndby</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H47" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="I47" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="J47" t="n">
-        <v>3.9</v>
+        <v>6.75</v>
       </c>
       <c r="K47" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L47" t="n">
-        <v>1.9</v>
+        <v>1.37</v>
       </c>
       <c r="M47" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O47" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P47" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="R47" t="n">
-        <v>3.55</v>
+        <v>4.62</v>
       </c>
       <c r="S47" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="T47" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U47" t="n">
         <v>1.95</v>
       </c>
-      <c r="U47" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W47" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="X47" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z47" t="n">
         <v>1.25</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>0.33</v>
       </c>
       <c r="AA47" t="n">
         <v>2</v>
       </c>
       <c r="AB47" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AD47" t="n">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="AE47" t="n">
-        <v>2.52</v>
+        <v>5</v>
       </c>
       <c r="AF47" t="n">
-        <v>8</v>
+        <v>10.75</v>
       </c>
       <c r="AG47" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AH47" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="AI47" t="n">
-        <v>3.7</v>
+        <v>2.45</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1.47</v>
+        <v>1.9</v>
       </c>
       <c r="AK47" t="n">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="AL47" t="n">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="AM47" t="n">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="AN47" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -7067,31 +7067,31 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Athletic Club Bilbao</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
         <v>2.05</v>
       </c>
       <c r="I48" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>2.88</v>
+        <v>2.15</v>
       </c>
       <c r="K48" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L48" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="M48" t="n">
         <v>1.44</v>
@@ -7100,88 +7100,88 @@
         <v>2.63</v>
       </c>
       <c r="O48" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P48" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R48" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AP48" t="n">
         <v>3</v>
-      </c>
-      <c r="S48" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X48" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>2.78</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.36</v>
@@ -7206,130 +7206,130 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AD Alcorcón</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CD Tenerife</t>
+          <t>Sporting Gijón</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I49" t="n">
         <v>4</v>
       </c>
-      <c r="H49" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.6</v>
-      </c>
       <c r="J49" t="n">
-        <v>2.75</v>
+        <v>2.23</v>
       </c>
       <c r="K49" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L49" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="M49" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V49" t="n">
         <v>1.67</v>
       </c>
-      <c r="N49" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="Q49" t="n">
+      <c r="W49" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ49" t="n">
         <v>1.58</v>
       </c>
-      <c r="R49" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U49" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X49" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1.68</v>
-      </c>
       <c r="AK49" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="AL49" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AM49" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="AN49" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="AO49" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AP49" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
@@ -7341,134 +7341,134 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Sporting Gijón</t>
+          <t>Athletic Club Bilbao</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="J50" t="n">
-        <v>2.23</v>
+        <v>2.88</v>
       </c>
       <c r="K50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P50" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R50" t="n">
         <v>3</v>
       </c>
-      <c r="L50" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P50" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>2.45</v>
-      </c>
       <c r="S50" t="n">
-        <v>2.43</v>
+        <v>2.07</v>
       </c>
       <c r="T50" t="n">
-        <v>1.52</v>
+        <v>1.76</v>
       </c>
       <c r="U50" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V50" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="W50" t="n">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
       <c r="X50" t="n">
         <v>1.3</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="Z50" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE50" t="n">
         <v>2.38</v>
       </c>
-      <c r="AA50" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>1.75</v>
-      </c>
       <c r="AF50" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AG50" t="n">
-        <v>2.44</v>
+        <v>1.87</v>
       </c>
       <c r="AH50" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AI50" t="n">
-        <v>3.25</v>
+        <v>4.05</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="AK50" t="n">
-        <v>2.28</v>
+        <v>2.85</v>
       </c>
       <c r="AL50" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="AM50" t="n">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="AN50" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="AO50" t="n">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="AP50" t="n">
-        <v>3.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -7480,128 +7480,128 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>AD Alcorcón</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>CD Tenerife</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J51" t="n">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="K51" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="L51" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="M51" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="N51" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="O51" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z51" t="n">
         <v>1.07</v>
       </c>
-      <c r="P51" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q51" t="n">
+      <c r="AA51" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO51" t="n">
         <v>1.36</v>
       </c>
-      <c r="R51" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S51" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X51" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>1.61</v>
-      </c>
       <c r="AP51" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="52">
@@ -7671,7 +7671,7 @@
         <v>1.53</v>
       </c>
       <c r="T52" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="U52" t="n">
         <v>1.53</v>
@@ -7689,10 +7689,10 @@
         <v>1.72</v>
       </c>
       <c r="Z52" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AA52" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AB52" t="n">
         <v>2.05</v>
@@ -7746,7 +7746,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
@@ -7758,134 +7758,134 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Lausanne Sport</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="I53" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>2.42</v>
+        <v>1.85</v>
       </c>
       <c r="K53" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="L53" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="M53" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="N53" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="O53" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P53" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="R53" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="S53" t="n">
-        <v>1.93</v>
+        <v>1.58</v>
       </c>
       <c r="T53" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="U53" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V53" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W53" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="X53" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.8</v>
+        <v>1.46</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AB53" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="AC53" t="n">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="AD53" t="n">
-        <v>2.57</v>
+        <v>3.31</v>
       </c>
       <c r="AE53" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL53" t="n">
         <v>1.75</v>
       </c>
-      <c r="AF53" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AK53" t="n">
+      <c r="AM53" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN53" t="n">
         <v>2.19</v>
       </c>
-      <c r="AL53" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>2.6</v>
-      </c>
       <c r="AO53" t="n">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="AP53" t="n">
-        <v>3.65</v>
+        <v>2.91</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
@@ -7897,134 +7897,134 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FC Vizela</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>GD Estoril Praia</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="K54" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L54" t="n">
-        <v>2.85</v>
+        <v>2.63</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="S54" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="T54" t="n">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.45</v>
+        <v>0.82</v>
       </c>
       <c r="AB54" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AC54" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AD54" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AL54" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AM54" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AN54" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AO54" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AP54" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
@@ -8036,128 +8036,128 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Lausanne Sport</t>
+          <t>FC Vizela</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>GD Estoril Praia</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="K55" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="L55" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="M55" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="T55" t="n">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="U55" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.5</v>
+        <v>0.58</v>
       </c>
       <c r="AA55" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="AC55" t="n">
-        <v>1.58</v>
+        <v>1.23</v>
       </c>
       <c r="AD55" t="n">
-        <v>3.31</v>
+        <v>2.65</v>
       </c>
       <c r="AE55" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AG55" t="n">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="AH55" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AI55" t="n">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AK55" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AL55" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AM55" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="AN55" t="n">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="AO55" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -8197,13 +8197,13 @@
         <v>3.4</v>
       </c>
       <c r="J56" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K56" t="n">
         <v>3.85</v>
       </c>
       <c r="L56" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M56" t="n">
         <v>1.29</v>
@@ -8227,7 +8227,7 @@
         <v>1.58</v>
       </c>
       <c r="T56" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U56" t="n">
         <v>1.5</v>
@@ -8245,10 +8245,10 @@
         <v>1.7</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AA56" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AB56" t="n">
         <v>1.71</v>
@@ -8302,7 +8302,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Austria Bundesliga</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
@@ -8314,134 +8314,134 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Olympiakos Piraeus</t>
+          <t>Rapid Wien</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Austria Wien</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="H57" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P57" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AF57" t="n">
         <v>8.5</v>
       </c>
-      <c r="J57" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L57" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N57" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P57" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q57" t="n">
+      <c r="AG57" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AH57" t="n">
         <v>1.16</v>
       </c>
-      <c r="R57" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="T57" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U57" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V57" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="X57" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>1.49</v>
-      </c>
       <c r="AI57" t="n">
-        <v>2.37</v>
+        <v>4.3</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1.98</v>
+        <v>1.33</v>
       </c>
       <c r="AK57" t="n">
-        <v>1.82</v>
+        <v>2.93</v>
       </c>
       <c r="AL57" t="n">
-        <v>2.55</v>
+        <v>1.61</v>
       </c>
       <c r="AM57" t="n">
-        <v>1.42</v>
+        <v>2.17</v>
       </c>
       <c r="AN57" t="n">
-        <v>3.6</v>
+        <v>2.02</v>
       </c>
       <c r="AO57" t="n">
-        <v>1.23</v>
+        <v>1.74</v>
       </c>
       <c r="AP57" t="n">
-        <v>4.9</v>
+        <v>2.62</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.16</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
@@ -8453,134 +8453,134 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="I58" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L58" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P58" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AG58" t="n">
         <v>5.5</v>
       </c>
-      <c r="H58" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N58" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P58" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="R58" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="T58" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V58" t="n">
-        <v>2</v>
-      </c>
-      <c r="W58" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="X58" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AH58" t="n">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="AI58" t="n">
-        <v>3.7</v>
+        <v>2.37</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1.47</v>
+        <v>1.98</v>
       </c>
       <c r="AK58" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL58" t="n">
         <v>2.55</v>
       </c>
-      <c r="AL58" t="n">
-        <v>1.82</v>
-      </c>
       <c r="AM58" t="n">
-        <v>1.98</v>
+        <v>1.42</v>
       </c>
       <c r="AN58" t="n">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="AO58" t="n">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="AP58" t="n">
-        <v>3.25</v>
+        <v>4.9</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Austria Bundesliga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
@@ -8592,128 +8592,128 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Rapid Wien</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Austria Wien</t>
+          <t>Beşiktaş</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="H59" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="J59" t="n">
-        <v>1.83</v>
+        <v>5.75</v>
       </c>
       <c r="K59" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L59" t="n">
-        <v>3.9</v>
+        <v>1.52</v>
       </c>
       <c r="M59" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="N59" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O59" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="R59" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="S59" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T59" t="n">
         <v>2.2</v>
       </c>
       <c r="U59" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="V59" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W59" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AH59" t="n">
         <v>1.25</v>
       </c>
-      <c r="X59" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z59" t="n">
+      <c r="AI59" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ59" t="n">
         <v>1.47</v>
       </c>
-      <c r="AA59" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AK59" t="n">
-        <v>2.93</v>
+        <v>2.55</v>
       </c>
       <c r="AL59" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="AM59" t="n">
-        <v>2.17</v>
+        <v>1.98</v>
       </c>
       <c r="AN59" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="AO59" t="n">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="60">
@@ -8780,10 +8780,10 @@
         <v>5</v>
       </c>
       <c r="S60" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T60" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="U60" t="n">
         <v>1.75</v>
@@ -8801,10 +8801,10 @@
         <v>2.75</v>
       </c>
       <c r="Z60" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AA60" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AB60" t="n">
         <v>1.76</v>
@@ -8858,7 +8858,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
@@ -8870,35 +8870,35 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Gorica</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Slaven Koprivnica</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="H61" t="n">
         <v>2.1</v>
       </c>
       <c r="I61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J61" t="n">
         <v>3.6</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2.2</v>
       </c>
       <c r="K61" t="n">
         <v>3.4</v>
       </c>
       <c r="L61" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
         <v>1.4</v>
@@ -8910,88 +8910,88 @@
         <v>1.06</v>
       </c>
       <c r="P61" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R61" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="S61" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V61" t="n">
         <v>1.95</v>
       </c>
-      <c r="T61" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U61" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V61" t="n">
-        <v>2</v>
-      </c>
       <c r="W61" t="n">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="X61" t="n">
         <v>1.25</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="Z61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>1.5</v>
       </c>
-      <c r="AA61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD61" t="n">
+      <c r="AK61" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN61" t="n">
         <v>2.45</v>
       </c>
-      <c r="AE61" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>3.2</v>
-      </c>
       <c r="AO61" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="62">
@@ -9058,10 +9058,10 @@
         <v>7.5</v>
       </c>
       <c r="S62" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="T62" t="n">
-        <v>2.71</v>
+        <v>3.2</v>
       </c>
       <c r="U62" t="n">
         <v>1.44</v>
@@ -9079,10 +9079,10 @@
         <v>2.6</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AB62" t="n">
         <v>1.8</v>
@@ -9136,7 +9136,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
@@ -9148,35 +9148,35 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Gorica</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Slaven Koprivnica</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H63" t="n">
         <v>2.1</v>
       </c>
       <c r="I63" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="J63" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="K63" t="n">
         <v>3.4</v>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="M63" t="n">
         <v>1.4</v>
@@ -9188,88 +9188,88 @@
         <v>1.06</v>
       </c>
       <c r="P63" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R63" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="S63" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T63" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U63" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V63" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W63" t="n">
-        <v>1.72</v>
+        <v>1.35</v>
       </c>
       <c r="X63" t="n">
         <v>1.25</v>
       </c>
       <c r="Y63" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO63" t="n">
         <v>1.3</v>
       </c>
-      <c r="Z63" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AP63" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="64">
@@ -9309,13 +9309,13 @@
         <v>3.2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="K64" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L64" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="M64" t="n">
         <v>1.33</v>
@@ -9336,10 +9336,10 @@
         <v>4.2</v>
       </c>
       <c r="S64" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="T64" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="U64" t="n">
         <v>1.57</v>
@@ -9357,10 +9357,10 @@
         <v>1.57</v>
       </c>
       <c r="Z64" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA64" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AB64" t="n">
         <v>1.85</v>
@@ -9448,13 +9448,13 @@
         <v>3.3</v>
       </c>
       <c r="J65" t="n">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="K65" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="L65" t="n">
-        <v>2.6</v>
+        <v>2.85</v>
       </c>
       <c r="M65" t="n">
         <v>1.42</v>
@@ -9475,10 +9475,10 @@
         <v>3.4</v>
       </c>
       <c r="S65" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="T65" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U65" t="n">
         <v>1.65</v>
@@ -9496,10 +9496,10 @@
         <v>1.53</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AA65" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AB65" t="n">
         <v>1.22</v>
@@ -9520,10 +9520,10 @@
         <v>2.42</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI65" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ65" t="n">
         <v>1.34</v>
@@ -9635,10 +9635,10 @@
         <v>1.38</v>
       </c>
       <c r="Z66" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AA66" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AB66" t="n">
         <v>1.44</v>
@@ -9774,10 +9774,10 @@
         <v>1.28</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AA67" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AB67" t="n">
         <v>1.76</v>
@@ -9892,10 +9892,10 @@
         <v>4.2</v>
       </c>
       <c r="S68" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="T68" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U68" t="n">
         <v>1.95</v>
@@ -9913,10 +9913,10 @@
         <v>1.09</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AA68" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AB68" t="n">
         <v>1.55</v>
@@ -9998,19 +9998,19 @@
         <v>3</v>
       </c>
       <c r="H69" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J69" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K69" t="n">
+        <v>3</v>
+      </c>
+      <c r="L69" t="n">
         <v>3.1</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2.88</v>
       </c>
       <c r="M69" t="n">
         <v>1.42</v>
@@ -10031,16 +10031,16 @@
         <v>2.93</v>
       </c>
       <c r="S69" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="T69" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="U69" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V69" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W69" t="n">
         <v>1.37</v>
@@ -10052,10 +10052,10 @@
         <v>1.52</v>
       </c>
       <c r="Z69" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AA69" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AB69" t="n">
         <v>1.48</v>
@@ -10070,10 +10070,10 @@
         <v>1.92</v>
       </c>
       <c r="AF69" t="n">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="AG69" t="n">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="AH69" t="n">
         <v>1.28</v>
@@ -10109,7 +10109,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
@@ -10121,128 +10121,128 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Volos NFC</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H70" t="n">
         <v>2.25</v>
       </c>
-      <c r="H70" t="n">
-        <v>2.2</v>
-      </c>
       <c r="I70" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="J70" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="K70" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="L70" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N70" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O70" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P70" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="R70" t="n">
-        <v>3.75</v>
+        <v>3.41</v>
       </c>
       <c r="S70" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="T70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ70" t="n">
         <v>1.92</v>
       </c>
-      <c r="U70" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V70" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W70" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X70" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AK70" t="n">
-        <v>2.19</v>
+        <v>1.88</v>
       </c>
       <c r="AL70" t="n">
-        <v>1.98</v>
+        <v>2.45</v>
       </c>
       <c r="AM70" t="n">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="AN70" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO70" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="AP70" t="n">
-        <v>3.64</v>
+        <v>4.7</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="71">
@@ -10309,10 +10309,10 @@
         <v>2.35</v>
       </c>
       <c r="S71" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="T71" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U71" t="n">
         <v>2.2</v>
@@ -10330,10 +10330,10 @@
         <v>1.35</v>
       </c>
       <c r="Z71" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AB71" t="n">
         <v>1.36</v>
@@ -10387,7 +10387,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
@@ -10399,128 +10399,128 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H72" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I72" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="J72" t="n">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="K72" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L72" t="n">
         <v>4.1</v>
       </c>
-      <c r="L72" t="n">
-        <v>6.1</v>
-      </c>
       <c r="M72" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N72" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O72" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P72" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="R72" t="n">
-        <v>3.41</v>
+        <v>3.75</v>
       </c>
       <c r="S72" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="T72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z72" t="n">
         <v>1.91</v>
       </c>
-      <c r="U72" t="n">
-        <v>2</v>
-      </c>
-      <c r="V72" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W72" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X72" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>2.09</v>
-      </c>
       <c r="AA72" t="n">
-        <v>0.73</v>
+        <v>1.09</v>
       </c>
       <c r="AB72" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM72" t="n">
         <v>1.7</v>
       </c>
-      <c r="AC72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>1.46</v>
-      </c>
       <c r="AN72" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="AO72" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="AP72" t="n">
-        <v>4.7</v>
+        <v>3.64</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="73">
@@ -10560,10 +10560,10 @@
         <v>7</v>
       </c>
       <c r="J73" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="K73" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L73" t="n">
         <v>8</v>
@@ -10608,10 +10608,10 @@
         <v>2.9</v>
       </c>
       <c r="Z73" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AB73" t="n">
         <v>1.91</v>
@@ -10720,10 +10720,10 @@
         <v>6.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R74" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="S74" t="n">
         <v>2.45</v>
@@ -10747,10 +10747,10 @@
         <v>1.6</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AA74" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AB74" t="n">
         <v>1.13</v>
@@ -10844,7 +10844,7 @@
         <v>7.5</v>
       </c>
       <c r="L75" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -10865,10 +10865,10 @@
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T75" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>6.5</v>
       </c>
       <c r="K76" t="n">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="L76" t="n">
         <v>1.35</v>
@@ -11255,13 +11255,13 @@
         <v>10</v>
       </c>
       <c r="J78" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="K78" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="L78" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M78" t="n">
         <v>1.25</v>
@@ -11282,10 +11282,10 @@
         <v>4.9</v>
       </c>
       <c r="S78" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="T78" t="n">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="U78" t="n">
         <v>2.2</v>
@@ -11394,13 +11394,13 @@
         <v>2.25</v>
       </c>
       <c r="J79" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="K79" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L79" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M79" t="n">
         <v>1.33</v>
@@ -11675,10 +11675,10 @@
         <v>3.9</v>
       </c>
       <c r="K81" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L81" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="M81" t="n">
         <v>1.3</v>
@@ -11838,10 +11838,10 @@
         <v>4</v>
       </c>
       <c r="S82" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="T82" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="U82" t="n">
         <v>1.67</v>
@@ -11950,13 +11950,13 @@
         <v>4.75</v>
       </c>
       <c r="J83" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="K83" t="n">
         <v>4</v>
       </c>
       <c r="L83" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="M83" t="n">
         <v>1.36</v>
@@ -11977,10 +11977,10 @@
         <v>4</v>
       </c>
       <c r="S83" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="T83" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U83" t="n">
         <v>1.8</v>
@@ -12255,10 +12255,10 @@
         <v>4.75</v>
       </c>
       <c r="S85" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="T85" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="U85" t="n">
         <v>1.91</v>
